--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptn-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptn-Sdc3.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.186504</v>
+        <v>0.7169949999999999</v>
       </c>
       <c r="H2">
-        <v>0.559512</v>
+        <v>2.150985</v>
       </c>
       <c r="I2">
-        <v>0.0009474183894496628</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="J2">
-        <v>0.0009474183894496627</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.36078833333333</v>
+        <v>28.31444233333334</v>
       </c>
       <c r="N2">
-        <v>103.082365</v>
+        <v>84.94332700000001</v>
       </c>
       <c r="O2">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="P2">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="Q2">
-        <v>6.40842446732</v>
+        <v>20.30131358078833</v>
       </c>
       <c r="R2">
-        <v>57.67582020588</v>
+        <v>182.711822227095</v>
       </c>
       <c r="S2">
-        <v>0.0002699220594483894</v>
+        <v>0.001003175185298858</v>
       </c>
       <c r="T2">
-        <v>0.0002699220594483894</v>
+        <v>0.001003175185298858</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.186504</v>
+        <v>0.7169949999999999</v>
       </c>
       <c r="H3">
-        <v>0.559512</v>
+        <v>2.150985</v>
       </c>
       <c r="I3">
-        <v>0.0009474183894496628</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="J3">
-        <v>0.0009474183894496627</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>64.633847</v>
       </c>
       <c r="O3">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="P3">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="Q3">
-        <v>4.018157000296</v>
+        <v>15.44738170992167</v>
       </c>
       <c r="R3">
-        <v>36.163413002664</v>
+        <v>139.026435389295</v>
       </c>
       <c r="S3">
-        <v>0.0001692442843381805</v>
+        <v>0.0007633215430895828</v>
       </c>
       <c r="T3">
-        <v>0.0001692442843381805</v>
+        <v>0.0007633215430895828</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.186504</v>
+        <v>0.7169949999999999</v>
       </c>
       <c r="H4">
-        <v>0.559512</v>
+        <v>2.150985</v>
       </c>
       <c r="I4">
-        <v>0.0009474183894496628</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="J4">
-        <v>0.0009474183894496627</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.668551</v>
+        <v>5.413469333333334</v>
       </c>
       <c r="N4">
-        <v>14.005653</v>
+        <v>16.240408</v>
       </c>
       <c r="O4">
-        <v>0.03870932131252083</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="P4">
-        <v>0.03870932131252085</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="Q4">
-        <v>0.870703435704</v>
+        <v>3.881430444653334</v>
       </c>
       <c r="R4">
-        <v>7.836330921336001</v>
+        <v>34.93287400188</v>
       </c>
       <c r="S4">
-        <v>3.6673922854598E-05</v>
+        <v>0.0001917981656726143</v>
       </c>
       <c r="T4">
-        <v>3.6673922854598E-05</v>
+        <v>0.0001917981656726143</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.186504</v>
+        <v>0.7169949999999999</v>
       </c>
       <c r="H5">
-        <v>0.559512</v>
+        <v>2.150985</v>
       </c>
       <c r="I5">
-        <v>0.0009474183894496628</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="J5">
-        <v>0.0009474183894496627</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.03138866666666</v>
+        <v>47.79503400000001</v>
       </c>
       <c r="N5">
-        <v>180.094166</v>
+        <v>143.385102</v>
       </c>
       <c r="O5">
-        <v>0.4977506538398792</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="P5">
-        <v>0.4977506538398793</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="Q5">
-        <v>11.196094111888</v>
+        <v>34.26880040283</v>
       </c>
       <c r="R5">
-        <v>100.764847006992</v>
+        <v>308.41920362547</v>
       </c>
       <c r="S5">
-        <v>0.0004715781228084949</v>
+        <v>0.001693368759478253</v>
       </c>
       <c r="T5">
-        <v>0.000471578122808495</v>
+        <v>0.001693368759478253</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>574.431976</v>
       </c>
       <c r="I6">
-        <v>0.9726822973418038</v>
+        <v>0.9751961860217362</v>
       </c>
       <c r="J6">
-        <v>0.9726822973418037</v>
+        <v>0.9751961860217361</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.36078833333333</v>
+        <v>28.31444233333334</v>
       </c>
       <c r="N6">
-        <v>103.082365</v>
+        <v>84.94332700000001</v>
       </c>
       <c r="O6">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="P6">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="Q6">
-        <v>6579.31184641147</v>
+        <v>5421.573686291572</v>
       </c>
       <c r="R6">
-        <v>59213.80661770323</v>
+        <v>48794.16317662416</v>
       </c>
       <c r="S6">
-        <v>0.2771198150797977</v>
+        <v>0.2679032647672527</v>
       </c>
       <c r="T6">
-        <v>0.2771198150797977</v>
+        <v>0.2679032647672526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>574.431976</v>
       </c>
       <c r="I7">
-        <v>0.9726822973418038</v>
+        <v>0.9751961860217362</v>
       </c>
       <c r="J7">
-        <v>0.9726822973418037</v>
+        <v>0.9751961860217361</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>64.633847</v>
       </c>
       <c r="O7">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="P7">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="Q7">
         <v>4125.305383187963</v>
@@ -883,10 +883,10 @@
         <v>37127.74844869167</v>
       </c>
       <c r="S7">
-        <v>0.1737573611988427</v>
+        <v>0.2038490748751471</v>
       </c>
       <c r="T7">
-        <v>0.1737573611988427</v>
+        <v>0.203849074875147</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>574.431976</v>
       </c>
       <c r="I8">
-        <v>0.9726822973418038</v>
+        <v>0.9751961860217362</v>
       </c>
       <c r="J8">
-        <v>0.9726822973418037</v>
+        <v>0.9751961860217361</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.668551</v>
+        <v>5.413469333333334</v>
       </c>
       <c r="N8">
-        <v>14.005653</v>
+        <v>16.240408</v>
       </c>
       <c r="O8">
-        <v>0.03870932131252083</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="P8">
-        <v>0.03870932131252085</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="Q8">
-        <v>893.9216586622586</v>
+        <v>1036.55662872069</v>
       </c>
       <c r="R8">
-        <v>8045.294927960328</v>
+        <v>9329.009658486209</v>
       </c>
       <c r="S8">
-        <v>0.03765187158280481</v>
+        <v>0.05122071948455949</v>
       </c>
       <c r="T8">
-        <v>0.03765187158280482</v>
+        <v>0.05122071948455949</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>574.431976</v>
       </c>
       <c r="I9">
-        <v>0.9726822973418038</v>
+        <v>0.9751961860217362</v>
       </c>
       <c r="J9">
-        <v>0.9726822973418037</v>
+        <v>0.9751961860217361</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.03138866666666</v>
+        <v>47.79503400000001</v>
       </c>
       <c r="N9">
-        <v>180.094166</v>
+        <v>143.385102</v>
       </c>
       <c r="O9">
-        <v>0.4977506538398792</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="P9">
-        <v>0.4977506538398793</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="Q9">
-        <v>11494.64973793911</v>
+        <v>9151.665274535728</v>
       </c>
       <c r="R9">
-        <v>103451.847641452</v>
+        <v>82364.98747082155</v>
       </c>
       <c r="S9">
-        <v>0.4841532494803586</v>
+        <v>0.452223126894777</v>
       </c>
       <c r="T9">
-        <v>0.4841532494803586</v>
+        <v>0.452223126894777</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.789462333333333</v>
+        <v>4.138615666666666</v>
       </c>
       <c r="H10">
-        <v>14.368387</v>
+        <v>12.415847</v>
       </c>
       <c r="I10">
-        <v>0.02432990547214264</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="J10">
-        <v>0.02432990547214263</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.36078833333333</v>
+        <v>28.31444233333334</v>
       </c>
       <c r="N10">
-        <v>103.082365</v>
+        <v>84.94332700000001</v>
       </c>
       <c r="O10">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="P10">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="Q10">
-        <v>164.5697014661394</v>
+        <v>117.1825946336632</v>
       </c>
       <c r="R10">
-        <v>1481.127313195255</v>
+        <v>1054.643351702969</v>
       </c>
       <c r="S10">
-        <v>0.006931655817911795</v>
+        <v>0.005790495803023855</v>
       </c>
       <c r="T10">
-        <v>0.006931655817911795</v>
+        <v>0.005790495803023854</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.789462333333333</v>
+        <v>4.138615666666666</v>
       </c>
       <c r="H11">
-        <v>14.368387</v>
+        <v>12.415847</v>
       </c>
       <c r="I11">
-        <v>0.02432990547214264</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="J11">
-        <v>0.02432990547214263</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>64.633847</v>
       </c>
       <c r="O11">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="P11">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="Q11">
-        <v>103.1871252216432</v>
+        <v>89.16488393037878</v>
       </c>
       <c r="R11">
-        <v>928.6841269947889</v>
+        <v>802.483955373409</v>
       </c>
       <c r="S11">
-        <v>0.004346229169184961</v>
+        <v>0.004406020260859172</v>
       </c>
       <c r="T11">
-        <v>0.00434622916918496</v>
+        <v>0.004406020260859172</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.789462333333333</v>
+        <v>4.138615666666666</v>
       </c>
       <c r="H12">
-        <v>14.368387</v>
+        <v>12.415847</v>
       </c>
       <c r="I12">
-        <v>0.02432990547214264</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="J12">
-        <v>0.02432990547214263</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.668551</v>
+        <v>5.413469333333334</v>
       </c>
       <c r="N12">
-        <v>14.005653</v>
+        <v>16.240408</v>
       </c>
       <c r="O12">
-        <v>0.03870932131252083</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="P12">
-        <v>0.03870932131252085</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="Q12">
-        <v>22.35984916574566</v>
+        <v>22.40426899395289</v>
       </c>
       <c r="R12">
-        <v>201.238642491711</v>
+        <v>201.638420945576</v>
       </c>
       <c r="S12">
-        <v>0.0009417941284244282</v>
+        <v>0.001107091253482396</v>
       </c>
       <c r="T12">
-        <v>0.0009417941284244285</v>
+        <v>0.001107091253482396</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.789462333333333</v>
+        <v>4.138615666666666</v>
       </c>
       <c r="H13">
-        <v>14.368387</v>
+        <v>12.415847</v>
       </c>
       <c r="I13">
-        <v>0.02432990547214264</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="J13">
-        <v>0.02432990547214263</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.03138866666666</v>
+        <v>47.79503400000001</v>
       </c>
       <c r="N13">
-        <v>180.094166</v>
+        <v>143.385102</v>
       </c>
       <c r="O13">
-        <v>0.4977506538398792</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="P13">
-        <v>0.4977506538398793</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="Q13">
-        <v>287.5180748366935</v>
+        <v>197.805276501266</v>
       </c>
       <c r="R13">
-        <v>2587.662673530242</v>
+        <v>1780.247488511394</v>
       </c>
       <c r="S13">
-        <v>0.01211022635662145</v>
+        <v>0.009774409134541522</v>
       </c>
       <c r="T13">
-        <v>0.01211022635662145</v>
+        <v>0.00977440913454152</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.4016586666666667</v>
+        <v>0.014556</v>
       </c>
       <c r="H14">
-        <v>1.204976</v>
+        <v>0.043668</v>
       </c>
       <c r="I14">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="J14">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.36078833333333</v>
+        <v>28.31444233333334</v>
       </c>
       <c r="N14">
-        <v>103.082365</v>
+        <v>84.94332700000001</v>
       </c>
       <c r="O14">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="P14">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="Q14">
-        <v>13.80130842758222</v>
+        <v>0.412145022604</v>
       </c>
       <c r="R14">
-        <v>124.21177584824</v>
+        <v>3.709305203436</v>
       </c>
       <c r="S14">
-        <v>0.0005813094330521639</v>
+        <v>2.036585749860204E-05</v>
       </c>
       <c r="T14">
-        <v>0.000581309433052164</v>
+        <v>2.036585749860204E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.4016586666666667</v>
+        <v>0.014556</v>
       </c>
       <c r="H15">
-        <v>1.204976</v>
+        <v>0.043668</v>
       </c>
       <c r="I15">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="J15">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>64.633847</v>
       </c>
       <c r="O15">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="P15">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="Q15">
-        <v>8.653581602519113</v>
+        <v>0.313603425644</v>
       </c>
       <c r="R15">
-        <v>77.88223442267201</v>
+        <v>2.822430830796</v>
       </c>
       <c r="S15">
-        <v>0.0003644878050241699</v>
+        <v>1.549649353372334E-05</v>
       </c>
       <c r="T15">
-        <v>0.0003644878050241699</v>
+        <v>1.549649353372334E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.4016586666666667</v>
+        <v>0.014556</v>
       </c>
       <c r="H16">
-        <v>1.204976</v>
+        <v>0.043668</v>
       </c>
       <c r="I16">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="J16">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.668551</v>
+        <v>5.413469333333334</v>
       </c>
       <c r="N16">
-        <v>14.005653</v>
+        <v>16.240408</v>
       </c>
       <c r="O16">
-        <v>0.03870932131252083</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="P16">
-        <v>0.03870932131252085</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="Q16">
-        <v>1.875163969925333</v>
+        <v>0.07879845961600002</v>
       </c>
       <c r="R16">
-        <v>16.876475729328</v>
+        <v>0.7091861365440001</v>
       </c>
       <c r="S16">
-        <v>7.898167843699879E-05</v>
+        <v>3.893770667202106E-06</v>
       </c>
       <c r="T16">
-        <v>7.898167843699882E-05</v>
+        <v>3.893770667202106E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.4016586666666667</v>
+        <v>0.014556</v>
       </c>
       <c r="H17">
-        <v>1.204976</v>
+        <v>0.043668</v>
       </c>
       <c r="I17">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="J17">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.03138866666666</v>
+        <v>47.79503400000001</v>
       </c>
       <c r="N17">
-        <v>180.094166</v>
+        <v>143.385102</v>
       </c>
       <c r="O17">
-        <v>0.4977506538398792</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="P17">
-        <v>0.4977506538398793</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="Q17">
-        <v>24.11212753000178</v>
+        <v>0.6957045149040001</v>
       </c>
       <c r="R17">
-        <v>217.009147770016</v>
+        <v>6.261340634136</v>
       </c>
       <c r="S17">
-        <v>0.001015599880090666</v>
+        <v>3.437775111816046E-05</v>
       </c>
       <c r="T17">
-        <v>0.001015599880090667</v>
+        <v>3.437775111816046E-05</v>
       </c>
     </row>
   </sheetData>
